--- a/spliced/walkingToRunning/2023-04-03_17-00-37/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-37/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.168524476046066</v>
+        <v>3.577567869787046</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.669631647141598</v>
+        <v>-6.830358225996321</v>
       </c>
       <c r="E2" t="n">
-        <v>6.291729929697442</v>
+        <v>7.436059972857905</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.194094896316528</v>
+        <v>-0.3733085989952087</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9634650945663452</v>
+        <v>-2.073603868484497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0717056170105934</v>
+        <v>2.090381860733032</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.060296274680465</v>
+        <v>1.296618202114653</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.79789317115233</v>
+        <v>-9.790127622488438</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3408509170152625</v>
+        <v>8.772651798817325</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.414604663848877</v>
+        <v>0.200868934392929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.444681316614151</v>
+        <v>-1.047221541404724</v>
       </c>
       <c r="H3" t="n">
-        <v>1.771335005760193</v>
+        <v>2.184124946594238</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5631605959728705</v>
+        <v>2.168524476046066</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.337644126533947</v>
+        <v>-9.669631647141598</v>
       </c>
       <c r="E4" t="n">
-        <v>4.529721613088265</v>
+        <v>6.291729929697442</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.245760202407837</v>
+        <v>-1.194094896316528</v>
       </c>
       <c r="G4" t="n">
-        <v>3.215966701507568</v>
+        <v>0.9634650945663452</v>
       </c>
       <c r="H4" t="n">
-        <v>5.047555923461914</v>
+        <v>0.0717056170105934</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.606977947509096</v>
+        <v>2.060296274680465</v>
       </c>
       <c r="D5" t="n">
-        <v>2.749581334340653</v>
+        <v>-15.79789317115233</v>
       </c>
       <c r="E5" t="n">
-        <v>8.704148023826628</v>
+        <v>-0.3408509170152625</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3136537969112396</v>
+        <v>-1.414604663848877</v>
       </c>
       <c r="G5" t="n">
-        <v>3.28307843208313</v>
+        <v>0.444681316614151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4722450375556946</v>
+        <v>1.771335005760193</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.878962026775263</v>
+        <v>-0.5631605959728705</v>
       </c>
       <c r="D6" t="n">
-        <v>1.780854188276234</v>
+        <v>-8.337644126533947</v>
       </c>
       <c r="E6" t="n">
-        <v>10.20314644976877</v>
+        <v>4.529721613088265</v>
       </c>
       <c r="F6" t="n">
-        <v>2.299439907073975</v>
+        <v>-1.245760202407837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4132560193538666</v>
+        <v>3.215966701507568</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0342882014811039</v>
+        <v>5.047555923461914</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.25311217123632</v>
+        <v>-2.606977947509096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2482639649954936</v>
+        <v>2.749581334340653</v>
       </c>
       <c r="E7" t="n">
-        <v>14.13474797939069</v>
+        <v>8.704148023826628</v>
       </c>
       <c r="F7" t="n">
-        <v>2.066679716110229</v>
+        <v>-0.3136537969112396</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.99637222290039</v>
+        <v>3.28307843208313</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.815195083618164</v>
+        <v>0.4722450375556946</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17.30286970191231</v>
+        <v>2.878962026775263</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.345501588852901</v>
+        <v>1.780854188276234</v>
       </c>
       <c r="E8" t="n">
-        <v>6.160751110941108</v>
+        <v>10.20314644976877</v>
       </c>
       <c r="F8" t="n">
-        <v>3.397727489471436</v>
+        <v>2.299439907073975</v>
       </c>
       <c r="G8" t="n">
-        <v>7.844008445739746</v>
+        <v>0.4132560193538666</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.625612258911133</v>
+        <v>-0.0342882014811039</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16.77036626826363</v>
+        <v>10.25311217123632</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.12453539200271</v>
+        <v>0.2482639649954936</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.154467277105418</v>
+        <v>14.13474797939069</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.216499328613281</v>
+        <v>2.066679716110229</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.29652738571167</v>
+        <v>-1.99637222290039</v>
       </c>
       <c r="H9" t="n">
-        <v>5.164734840393066</v>
+        <v>-4.815195083618164</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-10.87548799672837</v>
+        <v>17.30286970191231</v>
       </c>
       <c r="D10" t="n">
-        <v>-11.36323502050577</v>
+        <v>-7.345501588852901</v>
       </c>
       <c r="E10" t="n">
-        <v>5.413032257754492</v>
+        <v>6.160751110941108</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.98007869720459</v>
+        <v>3.397727489471436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7972838878631592</v>
+        <v>7.844008445739746</v>
       </c>
       <c r="H10" t="n">
-        <v>8.478240013122559</v>
+        <v>-6.625612258911133</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.876455623141776</v>
+        <v>16.77036626826363</v>
       </c>
       <c r="D11" t="n">
-        <v>-32.54226410586523</v>
+        <v>-17.12453539200271</v>
       </c>
       <c r="E11" t="n">
-        <v>19.61913488187845</v>
+        <v>-5.154467277105418</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.500109195709229</v>
+        <v>-3.216499328613281</v>
       </c>
       <c r="G11" t="n">
-        <v>7.255982398986816</v>
+        <v>-3.29652738571167</v>
       </c>
       <c r="H11" t="n">
-        <v>6.759435653686523</v>
+        <v>5.164734840393066</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50.47583389150513</v>
+        <v>-10.87548799672837</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.503464556530675</v>
+        <v>-11.36323502050577</v>
       </c>
       <c r="E12" t="n">
-        <v>25.77431648212245</v>
+        <v>5.413032257754492</v>
       </c>
       <c r="F12" t="n">
-        <v>4.161522388458252</v>
+        <v>-6.98007869720459</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7580022215843201</v>
+        <v>0.7972838878631592</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.298507690429688</v>
+        <v>8.478240013122559</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.833547540791238</v>
+        <v>-2.876455623141776</v>
       </c>
       <c r="D13" t="n">
-        <v>-13.35906494519977</v>
+        <v>-32.54226410586523</v>
       </c>
       <c r="E13" t="n">
-        <v>15.55757014659218</v>
+        <v>19.61913488187845</v>
       </c>
       <c r="F13" t="n">
-        <v>3.58042049407959</v>
+        <v>-2.500109195709229</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.013983249664307</v>
+        <v>7.255982398986816</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.726245403289795</v>
+        <v>6.759435653686523</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-26.51655229810853</v>
+        <v>50.47583389150513</v>
       </c>
       <c r="D14" t="n">
-        <v>11.14541947380614</v>
+        <v>-7.503464556530675</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.497799986633812</v>
+        <v>25.77431648212245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5662546157836914</v>
+        <v>4.161522388458252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.348807543516159</v>
+        <v>-0.7580022215843201</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.386210918426514</v>
+        <v>-2.298507690429688</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6.805932935430175</v>
+        <v>-1.833547540791238</v>
       </c>
       <c r="D15" t="n">
-        <v>7.032340392223448</v>
+        <v>-13.35906494519977</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9721723077047082</v>
+        <v>15.55757014659218</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.530786514282227</v>
+        <v>3.58042049407959</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.427022218704224</v>
+        <v>-4.013983249664307</v>
       </c>
       <c r="H15" t="n">
-        <v>3.131677865982056</v>
+        <v>-4.726245403289795</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11.96539219176566</v>
+        <v>-26.51655229810853</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.304819296736614</v>
+        <v>11.14541947380614</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.098955452112834</v>
+        <v>-8.497799986633812</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.868226051330566</v>
+        <v>0.5662546157836914</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.806755065917969</v>
+        <v>0.348807543516159</v>
       </c>
       <c r="H16" t="n">
-        <v>10.58639812469482</v>
+        <v>-7.386210918426514</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.602804305145005</v>
+        <v>-6.805932935430175</v>
       </c>
       <c r="D17" t="n">
-        <v>-42.36363804537932</v>
+        <v>7.032340392223448</v>
       </c>
       <c r="E17" t="n">
-        <v>16.64096578313493</v>
+        <v>0.9721723077047082</v>
       </c>
       <c r="F17" t="n">
-        <v>1.907955169677734</v>
+        <v>-5.530786514282227</v>
       </c>
       <c r="G17" t="n">
-        <v>14.34744739532471</v>
+        <v>-3.427022218704224</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4956808686256408</v>
+        <v>3.131677865982056</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5536478593204315</v>
+        <v>-11.96539219176566</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.825340818963561</v>
+        <v>-7.304819296736614</v>
       </c>
       <c r="E18" t="n">
-        <v>13.45371311672483</v>
+        <v>-2.098955452112834</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.698746919631958</v>
+        <v>-6.868226051330566</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.705373764038086</v>
+        <v>-1.806755065917969</v>
       </c>
       <c r="H18" t="n">
-        <v>1.454951524734497</v>
+        <v>10.58639812469482</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.92389786441021</v>
+        <v>8.602804305145005</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.957679432400008</v>
+        <v>-42.36363804537932</v>
       </c>
       <c r="E19" t="n">
-        <v>23.96456188391583</v>
+        <v>16.64096578313493</v>
       </c>
       <c r="F19" t="n">
-        <v>6.464091300964356</v>
+        <v>1.907955169677734</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.321527123451233</v>
+        <v>14.34744739532471</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.915080547332764</v>
+        <v>0.4956808686256408</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-56.21321548546163</v>
+        <v>0.5536478593204315</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.083060754596882</v>
+        <v>-8.825340818963561</v>
       </c>
       <c r="E20" t="n">
-        <v>-10.20085607707802</v>
+        <v>13.45371311672483</v>
       </c>
       <c r="F20" t="n">
-        <v>4.413990020751953</v>
+        <v>-0.698746919631958</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.110638856887817</v>
+        <v>-6.705373764038086</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.591172218322754</v>
+        <v>1.454951524734497</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>10.92389786441021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-9.957679432400008</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23.96456188391583</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.464091300964356</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.321527123451233</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-5.915080547332764</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-56.21321548546163</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-8.083060754596882</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-10.20085607707802</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.413990020751953</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-3.110638856887817</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.591172218322754</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>-5.554620584730344</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>4.939894823738217</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>-16.05567953204582</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>-1.979194760322571</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
         <v>1.858819842338562</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>3.587078332901001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-5.125987016035118</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.317670953866559</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-10.087697013307</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-9.171860694885254</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-10.49505233764648</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-3.089466571807861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12.1697812054039</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-11.89667802884434</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.7975602624165994</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.832921981811523</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-5.742907047271729</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.470998287200928</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>13.27590551955934</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.014137889798754</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9.396237328566208</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7526758909225464</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-7.854794025421143</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5755757093429565</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.693403524588408</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-26.48646446354427</v>
+      </c>
+      <c r="E27" t="n">
+        <v>34.13960077485957</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.307531356811523</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.279134750366211</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.9227187633514404</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-13.05436339826206</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-24.43262726167378</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17.33472581726497</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.3331458568573</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.669769525527954</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.161337971687317</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.37497096825698</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.57301431993091</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-14.26161232310758</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.678790211677551</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.915562152862549</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.480551958084106</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.968023679533061</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.754608689092123</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.53524044205469</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-8.003265380859375</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.636179566383362</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.630586981773376</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.008851450780502</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-11.21099381420506</v>
+      </c>
+      <c r="E31" t="n">
+        <v>19.69571330665882</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.040297269821167</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2.371345281600952</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.342917442321777</v>
       </c>
     </row>
   </sheetData>
